--- a/public/data/result/output/scores_data.xlsx
+++ b/public/data/result/output/scores_data.xlsx
@@ -471,37 +471,37 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>scores</t>
+          <t>score</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>rank</t>
+          <t>total_rank</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>A排名</t>
+          <t>A_rank</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>B排名</t>
+          <t>B_rank</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>C排名</t>
+          <t>C_rank</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>D排名</t>
+          <t>D_rank</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>E排名</t>
+          <t>E_rank</t>
         </is>
       </c>
     </row>
